--- a/result/deepLearning/parameterTuning_04_27_2016.xlsx
+++ b/result/deepLearning/parameterTuning_04_27_2016.xlsx
@@ -175,7 +175,7 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -301,7 +301,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>10</v>
@@ -313,40 +313,40 @@
         <v>0.001</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.692418955</v>
+        <v>0.297079571</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>34.77227</v>
+        <v>14.1373426</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.695065546</v>
+        <v>0.646063087</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>4.72280704E-019</v>
+        <v>7.07299368E-016</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.0651098955</v>
+        <v>0.0319073945</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.9742809</v>
+        <v>0.976060216</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.997016533</v>
+        <v>0.998375979</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.164792673</v>
+        <v>0.159831753</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.0235836539</v>
+        <v>0.022436879</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.00262470981</v>
+        <v>0.00149509104</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.169667518</v>
+        <v>0.164912225</v>
       </c>
       <c r="S3" s="0" t="s">
         <v>17</v>
@@ -357,10 +357,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>100</v>
@@ -372,37 +372,37 @@
         <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1.41345704</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>52.2402753</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.825673403</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>7.24113089E-032</v>
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.0877960556</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.97333846</v>
+        <v>0.97751238</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.996622562</v>
+        <v>1</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.170147366</v>
+        <v>0.15886065</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.02431588</v>
+        <v>0.02152378</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.00311839361</v>
+        <v>0</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.174848423</v>
+        <v>0.16319502</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>17</v>
@@ -416,49 +416,49 @@
         <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.787021381</v>
+        <v>0.0939817492</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>11.4663522</v>
+        <v>4.03376071</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.844644928</v>
+        <v>0.645767776</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>1.24302827E-034</v>
+        <v>7.36196632E-016</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.0453459784</v>
+        <v>0.0101018934</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.976897095</v>
+        <v>0.97579723</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.998786663</v>
+        <v>0.998070379</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.157527987</v>
+        <v>0.160432574</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.0217780983</v>
+        <v>0.022609388</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.00118191434</v>
+        <v>0.00187973497</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.162898383</v>
+        <v>0.164027616</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>17</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>10</v>
@@ -484,37 +484,37 @@
         <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3.01627016</v>
+        <v>0.787021381</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>31.7535548</v>
+        <v>11.4663522</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.924405174</v>
+        <v>0.844644928</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>1.74541335E-052</v>
+        <v>1.24302827E-034</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.113138256</v>
+        <v>0.0453459784</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.976850615</v>
+        <v>0.976897095</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.999256842</v>
+        <v>0.998786663</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.153031662</v>
+        <v>0.157527987</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.0219187179</v>
+        <v>0.0217780983</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.000708820002</v>
+        <v>0.00118191434</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.159765206</v>
+        <v>0.162898383</v>
       </c>
       <c r="S6" s="0" t="s">
         <v>17</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>10</v>
@@ -537,40 +537,40 @@
         <v>0.005</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5.41965709</v>
+        <v>11.2367334</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>69.795131</v>
+        <v>98.0786916</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.95294847</v>
+        <v>0.959183679</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>1.43789942E-064</v>
+        <v>3.18740536E-068</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.156726334</v>
+        <v>0.301161964</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.976219119</v>
+        <v>0.960079491</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.999177555</v>
+        <v>0.980022315</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.149398091</v>
+        <v>0.168732432</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.0226582556</v>
+        <v>0.0367644823</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.00069116145</v>
+        <v>0.0184128424</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.158473221</v>
+        <v>0.17011992</v>
       </c>
       <c r="S7" s="0" t="s">
         <v>17</v>
@@ -584,49 +584,49 @@
         <v>20</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4.55783119</v>
+        <v>0.265985668</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-3.04403125</v>
+        <v>4.66974294</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.946847202</v>
+        <v>0.854053844</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>1.91369413E-061</v>
+        <v>3.81875849E-036</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.140771472</v>
+        <v>0.0147277974</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.977169296</v>
+        <v>0.976401413</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.998544744</v>
+        <v>0.99809099</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.1470499</v>
+        <v>0.157956798</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.0216812363</v>
+        <v>0.0219684051</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.00149000403</v>
+        <v>0.00177311884</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.151826255</v>
+        <v>0.16165448</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>17</v>
@@ -637,52 +637,52 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>18.5011453</v>
+        <v>3.5656246</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>94.155926</v>
+        <v>42.4760918</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.978137781</v>
+        <v>0.961171314</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>2.20857497E-084</v>
+        <v>1.65001036E-069</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.357586636</v>
+        <v>0.0930628283</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.977356156</v>
+        <v>0.95289264</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.997805691</v>
+        <v>0.972151936</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.107517879</v>
+        <v>0.176979293</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.021166071</v>
+        <v>0.0419016912</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.00173953679</v>
+        <v>0.0243237891</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.114226631</v>
+        <v>0.173804615</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>17</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10</v>
@@ -708,37 +708,37 @@
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>19.3568112</v>
+        <v>4.55783119</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>143.706017</v>
+        <v>-3.04403125</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.978166774</v>
+        <v>0.946847202</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>2.03993651E-084</v>
+        <v>1.91369413E-061</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.373868284</v>
+        <v>0.140771472</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.976524469</v>
+        <v>0.977169296</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.998039155</v>
+        <v>0.998544744</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.1131772</v>
+        <v>0.1470499</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.0223293546</v>
+        <v>0.0216812363</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.00152726049</v>
+        <v>0.00149000403</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.121921026</v>
+        <v>0.151826255</v>
       </c>
       <c r="S10" s="0" t="s">
         <v>17</v>
@@ -758,43 +758,43 @@
         <v>100</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>23.6143146</v>
+        <v>13.2692172</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>19.4678788</v>
+        <v>60.3617018</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.985574703</v>
+        <v>0.977479852</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>3.27356788E-095</v>
+        <v>1.302322E-083</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.368636731</v>
+        <v>0.260427271</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.97732326</v>
+        <v>0.96280153</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.997474619</v>
+        <v>0.982648168</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.105402723</v>
+        <v>0.159641668</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.0211811148</v>
+        <v>0.0348467848</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.0023498452</v>
+        <v>0.0164898226</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.108392154</v>
+        <v>0.162454537</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>17</v>
@@ -805,52 +805,52 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>32.335089</v>
+        <v>1.15850988</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>149.440198</v>
+        <v>3.66794251</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.993311186</v>
+        <v>0.905174353</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>2.6328874E-115</v>
+        <v>8.75397721E-047</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.34171037</v>
+        <v>0.0494544169</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.977679285</v>
+        <v>0.977006398</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.996553122</v>
+        <v>0.998442744</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.0789440818</v>
+        <v>0.147477798</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.0205205796</v>
+        <v>0.0217950427</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.00251674803</v>
+        <v>0.001656288</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0.0824769226</v>
+        <v>0.151936276</v>
       </c>
       <c r="S12" s="0" t="s">
         <v>17</v>
@@ -861,52 +861,52 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>25.455467</v>
+        <v>4.36025438</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>233.707264</v>
+        <v>43.1001687</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.984228665</v>
+        <v>0.97794145</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>6.94674027E-093</v>
+        <v>3.77133574E-084</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.415932125</v>
+        <v>0.0846645268</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.971055872</v>
+        <v>0.949512516</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.989988467</v>
+        <v>0.968336687</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.108850076</v>
+        <v>0.176201755</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.0243420481</v>
+        <v>0.0442374654</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.00673405755</v>
+        <v>0.0270597119</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.108873845</v>
+        <v>0.172221689</v>
       </c>
       <c r="S13" s="0" t="s">
         <v>17</v>
@@ -926,43 +926,43 @@
         <v>100</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.297079571</v>
+        <v>23.6143146</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>14.1373426</v>
+        <v>19.4678788</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.646063087</v>
+        <v>0.985574703</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>7.07299368E-016</v>
+        <v>3.27356788E-095</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.0319073945</v>
+        <v>0.368636731</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.976060216</v>
+        <v>0.97732326</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.998375979</v>
+        <v>0.997474619</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.159831753</v>
+        <v>0.105402723</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.022436879</v>
+        <v>0.0211811148</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.00149509104</v>
+        <v>0.0023498452</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.164912225</v>
+        <v>0.108392154</v>
       </c>
       <c r="S14" s="0" t="s">
         <v>17</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>10</v>
@@ -982,43 +982,43 @@
         <v>100</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>41.0024227</v>
+        <v>16.5168744</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1469.80764</v>
+        <v>108.244171</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.873443252</v>
+        <v>0.989710808</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1.25990763E-039</v>
+        <v>4.89697641E-104</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>2.07799771</v>
+        <v>0.217076339</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.932549897</v>
+        <v>0.957794966</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.953229209</v>
+        <v>0.976661017</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.320390888</v>
+        <v>0.156966812</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.0523004956</v>
+        <v>0.0371172716</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.0340817615</v>
+        <v>0.0198402669</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.254264707</v>
+        <v>0.157195102</v>
       </c>
       <c r="S15" s="0" t="s">
         <v>17</v>
@@ -1029,52 +1029,52 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>76.8053295</v>
+        <v>7.25724199</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>3523.49067</v>
+        <v>3.67253846</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.854455295</v>
+        <v>0.976865728</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>3.27369345E-036</v>
+        <v>6.51243047E-083</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>4.24537165</v>
+        <v>0.144431044</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.935874866</v>
+        <v>0.976672199</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.958095228</v>
+        <v>0.997100919</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.566270716</v>
+        <v>0.111961332</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.0465545429</v>
+        <v>0.0216142548</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.0276988035</v>
+        <v>0.00278658676</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.397466373</v>
+        <v>0.114462076</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>17</v>
@@ -1088,49 +1088,49 @@
         <v>20</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>11.2367334</v>
+        <v>5.14624903</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>98.0786916</v>
+        <v>70.7446336</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.959183679</v>
+        <v>0.987006039</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>3.18740536E-068</v>
+        <v>6.13271178E-098</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.301161964</v>
+        <v>0.0761638137</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0.960079491</v>
+        <v>0.940805806</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0.980022315</v>
+        <v>0.958722352</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0.168732432</v>
+        <v>0.178203347</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.0367644823</v>
+        <v>0.0469868072</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.0184128424</v>
+        <v>0.0306214405</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.17011992</v>
+        <v>0.168686036</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>17</v>
@@ -1150,43 +1150,43 @@
         <v>100</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>124.082972</v>
+        <v>0.692418955</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>4341.089</v>
+        <v>34.77227</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.941303798</v>
+        <v>0.695065546</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>6.54680628E-059</v>
+        <v>4.72280704E-019</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>4.04521348</v>
+        <v>0.0651098955</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0.851796972</v>
+        <v>0.9742809</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0.869018093</v>
+        <v>0.997016533</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>0.662526731</v>
+        <v>0.164792673</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.10849443</v>
+        <v>0.0235836539</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.0939143139</v>
+        <v>0.00262470981</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>0.462194129</v>
+        <v>0.169667518</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>17</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>10</v>
@@ -1206,43 +1206,43 @@
         <v>100</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>391.887934</v>
+        <v>41.0024227</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>11357.6596</v>
+        <v>1469.80764</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.949323863</v>
+        <v>0.873443252</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1.14932574E-062</v>
+        <v>1.25990763E-039</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>11.7950166</v>
+        <v>2.07799771</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>0.788739724</v>
+        <v>0.932549897</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0.80445724</v>
+        <v>0.953229209</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>2.17339983</v>
+        <v>0.320390888</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.155091876</v>
+        <v>0.0523004956</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.142633885</v>
+        <v>0.0340817615</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>1.60104998</v>
+        <v>0.254264707</v>
       </c>
       <c r="S19" s="0" t="s">
         <v>17</v>
@@ -1253,52 +1253,52 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>13.2692172</v>
+        <v>0.242368935</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>60.3617018</v>
+        <v>12.660768</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.977479852</v>
+        <v>0.724973305</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1.302322E-083</v>
+        <v>2.53342904E-021</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.260427271</v>
+        <v>0.0209334529</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0.96280153</v>
+        <v>0.973458286</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0.982648168</v>
+        <v>0.996066093</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>0.159641668</v>
+        <v>0.164447877</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.0348467848</v>
+        <v>0.0238985048</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>0.0164898226</v>
+        <v>0.00314381125</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>0.162454537</v>
+        <v>0.168767671</v>
       </c>
       <c r="S20" s="0" t="s">
         <v>17</v>
@@ -1312,49 +1312,49 @@
         <v>50</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>140.0808</v>
+        <v>10.3788047</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>4613.81039</v>
+        <v>366.036148</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.948173918</v>
+        <v>0.875053305</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>4.31539607E-062</v>
+        <v>6.10540363E-040</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>4.26762229</v>
+        <v>0.521902455</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0.836372873</v>
+        <v>0.932977412</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>0.852896554</v>
+        <v>0.953717963</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>0.722620431</v>
+        <v>0.320851035</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.118133127</v>
+        <v>0.0516963126</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.104385218</v>
+        <v>0.0333653943</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>0.510604551</v>
+        <v>0.256422334</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>17</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>10</v>
@@ -1374,43 +1374,43 @@
         <v>100</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>487.708087</v>
+        <v>3.01627016</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>13305.7587</v>
+        <v>31.7535548</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.955280925</v>
+        <v>0.924405174</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>7.11460921E-066</v>
+        <v>1.74541335E-052</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>13.7242037</v>
+        <v>0.113138256</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>0.742606962</v>
+        <v>0.976850615</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0.756458367</v>
+        <v>0.999256842</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>2.64539498</v>
+        <v>0.153031662</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.185033369</v>
+        <v>0.0219187179</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.174701503</v>
+        <v>0.000708820002</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>1.96963658</v>
+        <v>0.159765206</v>
       </c>
       <c r="S22" s="0" t="s">
         <v>17</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>10</v>
@@ -1430,43 +1430,43 @@
         <v>100</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>16.5168744</v>
+        <v>124.082972</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>108.244171</v>
+        <v>4341.089</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.989710808</v>
+        <v>0.941303798</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>4.89697641E-104</v>
+        <v>6.54680628E-059</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.217076339</v>
+        <v>4.04521348</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>0.957794966</v>
+        <v>0.851796972</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0.976661017</v>
+        <v>0.869018093</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>0.156966812</v>
+        <v>0.662526731</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.0371172716</v>
+        <v>0.10849443</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0.0198402669</v>
+        <v>0.0939143139</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>0.157195102</v>
+        <v>0.462194129</v>
       </c>
       <c r="S23" s="0" t="s">
         <v>17</v>
@@ -1480,49 +1480,49 @@
         <v>50</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>156.754191</v>
+        <v>1.48476059</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>4398.10747</v>
+        <v>19.1737719</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.96508833</v>
+        <v>0.945172377</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>2.97962472E-072</v>
+        <v>1.18890692E-060</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>3.86754844</v>
+        <v>0.0466370938</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0.829566337</v>
+        <v>0.975924989</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.845756877</v>
+        <v>0.997517949</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>0.757389902</v>
+        <v>0.146753051</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.124374906</v>
+        <v>0.0221361676</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.110893919</v>
+        <v>0.0019875184</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.552682533</v>
+        <v>0.152193547</v>
       </c>
       <c r="S24" s="0" t="s">
         <v>17</v>
@@ -1533,52 +1533,52 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>583.565328</v>
+        <v>24.3369818</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>22211.3809</v>
+        <v>809.760701</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.953385049</v>
+        <v>0.937734918</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>8.28840478E-065</v>
+        <v>2.09022035E-057</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>16.7913265</v>
+        <v>0.819527269</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0.642226289</v>
+        <v>0.890478818</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0.652976158</v>
+        <v>0.90928069</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>3.51443196</v>
+        <v>0.528897091</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.210111656</v>
+        <v>0.0850538065</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.20301504</v>
+        <v>0.0686260787</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>2.33174694</v>
+        <v>0.38623614</v>
       </c>
       <c r="S25" s="0" t="s">
         <v>17</v>
@@ -1589,52 +1589,52 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
+        <v>18.5011453</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0</v>
+        <v>94.155926</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>1</v>
+        <v>0.978137781</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>2.20857497E-084</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0</v>
+        <v>0.357586636</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0.97751238</v>
+        <v>0.977356156</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>1</v>
+        <v>0.997805691</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0.15886065</v>
+        <v>0.107517879</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.02152378</v>
+        <v>0.021166071</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0</v>
+        <v>0.00173953679</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0.16319502</v>
+        <v>0.114226631</v>
       </c>
       <c r="S26" s="0" t="s">
         <v>17</v>
@@ -1648,49 +1648,49 @@
         <v>50</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.242368935</v>
+        <v>140.0808</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>12.660768</v>
+        <v>4613.81039</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.724973305</v>
+        <v>0.948173918</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>2.53342904E-021</v>
+        <v>4.31539607E-062</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.0209334529</v>
+        <v>4.26762229</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.973458286</v>
+        <v>0.836372873</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0.996066093</v>
+        <v>0.852896554</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>0.164447877</v>
+        <v>0.722620431</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.0238985048</v>
+        <v>0.118133127</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0.00314381125</v>
+        <v>0.104385218</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>0.168767671</v>
+        <v>0.510604551</v>
       </c>
       <c r="S27" s="0" t="s">
         <v>17</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>20</v>
@@ -1710,43 +1710,43 @@
         <v>100</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.225219898</v>
+        <v>5.41213611</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>9.08419792</v>
+        <v>37.5425015</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.771833494</v>
+        <v>0.960947026</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1.49137663E-025</v>
+        <v>2.32229095E-069</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.0168666119</v>
+        <v>0.14168914</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0.973718998</v>
+        <v>0.976260549</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0.997335947</v>
+        <v>0.996563096</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>0.171827711</v>
+        <v>0.108789664</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.0242545148</v>
+        <v>0.0217072091</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.00260945758</v>
+        <v>0.00267221725</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>0.176302783</v>
+        <v>0.114287618</v>
       </c>
       <c r="S28" s="0" t="s">
         <v>17</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>20</v>
@@ -1766,43 +1766,43 @@
         <v>100</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.265985668</v>
+        <v>25.2035642</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>4.66974294</v>
+        <v>758.017467</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.854053844</v>
+        <v>0.941229187</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>3.81875849E-036</v>
+        <v>7.05393028E-059</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.0147277974</v>
+        <v>0.822229675</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0.976401413</v>
+        <v>0.883016075</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0.99809099</v>
+        <v>0.901448086</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>0.157956798</v>
+        <v>0.536909109</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.0219684051</v>
+        <v>0.0912006378</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.00177311884</v>
+        <v>0.0752267273</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>0.16165448</v>
+        <v>0.410038481</v>
       </c>
       <c r="S29" s="0" t="s">
         <v>17</v>
@@ -1816,49 +1816,49 @@
         <v>50</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1.48476059</v>
+        <v>32.335089</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>19.1737719</v>
+        <v>149.440198</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.945172377</v>
+        <v>0.993311186</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>1.18890692E-060</v>
+        <v>2.6328874E-115</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.0466370938</v>
+        <v>0.34171037</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0.975924989</v>
+        <v>0.977679285</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0.997517949</v>
+        <v>0.996553122</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>0.146753051</v>
+        <v>0.0789440818</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.0221361676</v>
+        <v>0.0205205796</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.0019875184</v>
+        <v>0.00251674803</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0.152193547</v>
+        <v>0.0824769226</v>
       </c>
       <c r="S30" s="0" t="s">
         <v>17</v>
@@ -1869,52 +1869,52 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.147463851</v>
+        <v>156.754191</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>2.79051559</v>
+        <v>4398.10747</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.696408944</v>
+        <v>0.96508833</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>3.78611617E-019</v>
+        <v>2.97962472E-072</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.0138145999</v>
+        <v>3.86754844</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0.975958101</v>
+        <v>0.829566337</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0.999937391</v>
+        <v>0.845756877</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>0.168841205</v>
+        <v>0.757389902</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>0.0232004657</v>
+        <v>0.124374906</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0.000124474629</v>
+        <v>0.110893919</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>0.175383858</v>
+        <v>0.552682533</v>
       </c>
       <c r="S31" s="0" t="s">
         <v>17</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>20</v>
@@ -1934,43 +1934,43 @@
         <v>100</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1.15850988</v>
+        <v>9.33455619</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>3.66794251</v>
+        <v>84.4979529</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.905174353</v>
+        <v>0.979502025</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>8.75397721E-047</v>
+        <v>4.66276152E-086</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.0494544169</v>
+        <v>0.17451353</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0.977006398</v>
+        <v>0.975051621</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0.998442744</v>
+        <v>0.993959965</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>0.147477798</v>
+        <v>0.0979669907</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>0.0217950427</v>
+        <v>0.0221638495</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>0.001656288</v>
+        <v>0.00423656012</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>0.151936276</v>
+        <v>0.0950873754</v>
       </c>
       <c r="S32" s="0" t="s">
         <v>17</v>
@@ -1990,43 +1990,43 @@
         <v>100</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>5.41213611</v>
+        <v>40.3838779</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>37.5425015</v>
+        <v>809.604655</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.960947026</v>
+        <v>0.979325957</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>2.32229095E-069</v>
+        <v>7.78230685E-086</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.14168914</v>
+        <v>0.758332103</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>0.976260549</v>
+        <v>0.84901216</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0.996563096</v>
+        <v>0.866062583</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>0.108789664</v>
+        <v>0.72103586</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.0217072091</v>
+        <v>0.115792691</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0.00267221725</v>
+        <v>0.101421262</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>0.114287618</v>
+        <v>0.57515367</v>
       </c>
       <c r="S33" s="0" t="s">
         <v>17</v>
@@ -2040,49 +2040,49 @@
         <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1.2015383</v>
+        <v>1.41345704</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>11.7866018</v>
+        <v>52.2402753</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.876783238</v>
+        <v>0.825673403</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>2.77190618E-040</v>
+        <v>7.24113089E-032</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.0599093558</v>
+        <v>0.0877960556</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>0.976072724</v>
+        <v>0.97333846</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0.999917469</v>
+        <v>0.996622562</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>0.155611011</v>
+        <v>0.170147366</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.0231010248</v>
+        <v>0.02431588</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.000155616468</v>
+        <v>0.00311839361</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>0.163928839</v>
+        <v>0.174848423</v>
       </c>
       <c r="S34" s="0" t="s">
         <v>17</v>
@@ -2093,52 +2093,52 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>7.25724199</v>
+        <v>76.8053295</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>3.67253846</v>
+        <v>3523.49067</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.976865728</v>
+        <v>0.854455295</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>6.51243047E-083</v>
+        <v>3.27369345E-036</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.144431044</v>
+        <v>4.24537165</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.976672199</v>
+        <v>0.935874866</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0.997100919</v>
+        <v>0.958095228</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>0.111961332</v>
+        <v>0.566270716</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.0216142548</v>
+        <v>0.0465545429</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.00278658676</v>
+        <v>0.0276988035</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>0.114462076</v>
+        <v>0.397466373</v>
       </c>
       <c r="S35" s="0" t="s">
         <v>17</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>20</v>
@@ -2158,43 +2158,43 @@
         <v>100</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>9.33455619</v>
+        <v>0.225219898</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>84.4979529</v>
+        <v>9.08419792</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.979502025</v>
+        <v>0.771833494</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>4.66276152E-086</v>
+        <v>1.49137663E-025</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.17451353</v>
+        <v>0.0168666119</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0.975051621</v>
+        <v>0.973718998</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0.993959965</v>
+        <v>0.997335947</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0.0979669907</v>
+        <v>0.171827711</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>0.0221638495</v>
+        <v>0.0242545148</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0.00423656012</v>
+        <v>0.00260945758</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>0.0950873754</v>
+        <v>0.176302783</v>
       </c>
       <c r="S36" s="0" t="s">
         <v>17</v>
@@ -2214,43 +2214,43 @@
         <v>100</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>-0.000182275622</v>
+        <v>31.8378181</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.0276738768</v>
+        <v>1433.33435</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>-0.0640289578</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0.481689798</v>
+        <v>0.892110324</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>1.44169766E-043</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.000258266098</v>
+        <v>1.46586919</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.975874904</v>
+        <v>0.90252718</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.99999793</v>
+        <v>0.923451997</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0.171280233</v>
+        <v>0.839837959</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.0232707074</v>
-      </c>
-      <c r="O37" s="1" t="n">
-        <v>2.2867248E-005</v>
+        <v>0.0673119468</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.0495980448</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0.177447036</v>
+        <v>0.561863665</v>
       </c>
       <c r="S37" s="0" t="s">
         <v>17</v>
@@ -2261,52 +2261,52 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.0939817492</v>
+        <v>5.41965709</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>4.03376071</v>
+        <v>69.795131</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.645767776</v>
+        <v>0.95294847</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>7.36196632E-016</v>
+        <v>1.43789942E-064</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.0101018934</v>
+        <v>0.156726334</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0.97579723</v>
+        <v>0.976219119</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.998070379</v>
+        <v>0.999177555</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0.160432574</v>
+        <v>0.149398091</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>0.022609388</v>
+        <v>0.0226582556</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0.00187973497</v>
+        <v>0.00069116145</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>0.164027616</v>
+        <v>0.158473221</v>
       </c>
       <c r="S38" s="0" t="s">
         <v>17</v>
@@ -2317,52 +2317,52 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>10.3788047</v>
+        <v>391.887934</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>366.036148</v>
+        <v>11357.6596</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.875053305</v>
+        <v>0.949323863</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>6.10540363E-040</v>
+        <v>1.14932574E-062</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.521902455</v>
+        <v>11.7950166</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>0.932977412</v>
+        <v>0.788739724</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0.953717963</v>
+        <v>0.80445724</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>0.320851035</v>
+        <v>2.17339983</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.0516963126</v>
+        <v>0.155091876</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.0333653943</v>
+        <v>0.142633885</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>0.256422334</v>
+        <v>1.60104998</v>
       </c>
       <c r="S39" s="0" t="s">
         <v>17</v>
@@ -2382,43 +2382,43 @@
         <v>100</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>31.8378181</v>
+        <v>0.147463851</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1433.33435</v>
+        <v>2.79051559</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.892110324</v>
+        <v>0.696408944</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>1.44169766E-043</v>
+        <v>3.78611617E-019</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>1.46586919</v>
+        <v>0.0138145999</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>0.90252718</v>
+        <v>0.975958101</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0.923451997</v>
+        <v>0.999937391</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>0.839837959</v>
+        <v>0.168841205</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.0673119468</v>
+        <v>0.0232004657</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.0495980448</v>
+        <v>0.000124474629</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>0.561863665</v>
+        <v>0.175383858</v>
       </c>
       <c r="S40" s="0" t="s">
         <v>17</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>20</v>
@@ -2444,37 +2444,37 @@
         <v>1</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>3.5656246</v>
+        <v>89.4311041</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>42.4760918</v>
+        <v>2783.69623</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.961171314</v>
+        <v>0.94121226</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>1.65001036E-069</v>
+        <v>7.17424058E-059</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.0930628283</v>
+        <v>2.91801974</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0.95289264</v>
+        <v>0.777109228</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0.972151936</v>
+        <v>0.792446804</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>0.176979293</v>
+        <v>2.02004804</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0.0419016912</v>
+        <v>0.160065014</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.0243237891</v>
+        <v>0.148097515</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>0.173804615</v>
+        <v>1.46464215</v>
       </c>
       <c r="S41" s="0" t="s">
         <v>17</v>
@@ -2485,52 +2485,52 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>24.3369818</v>
+        <v>19.3568112</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>809.760701</v>
+        <v>143.706017</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.937734918</v>
+        <v>0.978166774</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>2.09022035E-057</v>
+        <v>2.03993651E-084</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.819527269</v>
+        <v>0.373868284</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0.890478818</v>
+        <v>0.976524469</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0.90928069</v>
+        <v>0.998039155</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>0.528897091</v>
+        <v>0.1131772</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>0.0850538065</v>
+        <v>0.0223293546</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>0.0686260787</v>
+        <v>0.00152726049</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>0.38623614</v>
+        <v>0.121921026</v>
       </c>
       <c r="S42" s="0" t="s">
         <v>17</v>
@@ -2544,49 +2544,49 @@
         <v>100</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>89.4311041</v>
+        <v>487.708087</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>2783.69623</v>
+        <v>13305.7587</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.94121226</v>
+        <v>0.955280925</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>7.17424058E-059</v>
+        <v>7.11460921E-066</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>2.91801974</v>
+        <v>13.7242037</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0.777109228</v>
+        <v>0.742606962</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>0.792446804</v>
+        <v>0.756458367</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>2.02004804</v>
+        <v>2.64539498</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.160065014</v>
+        <v>0.185033369</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>0.148097515</v>
+        <v>0.174701503</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>1.46464215</v>
+        <v>1.96963658</v>
       </c>
       <c r="S43" s="0" t="s">
         <v>17</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>20</v>
@@ -2609,40 +2609,40 @@
         <v>0.01</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>4.36025438</v>
+        <v>1.2015383</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>43.1001687</v>
+        <v>11.7866018</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.97794145</v>
+        <v>0.876783238</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>3.77133574E-084</v>
+        <v>2.77190618E-040</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.0846645268</v>
+        <v>0.0599093558</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0.949512516</v>
+        <v>0.976072724</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>0.968336687</v>
+        <v>0.999917469</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>0.176201755</v>
+        <v>0.155611011</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>0.0442374654</v>
+        <v>0.0231010248</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0.0270597119</v>
+        <v>0.000155616468</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>0.172221689</v>
+        <v>0.163928839</v>
       </c>
       <c r="S44" s="0" t="s">
         <v>17</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>20</v>
@@ -2668,37 +2668,37 @@
         <v>1</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>25.2035642</v>
+        <v>127.321855</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>758.017467</v>
+        <v>4177.43962</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.941229187</v>
+        <v>0.949848822</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>7.05393028E-059</v>
+        <v>6.21841471E-063</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.822229675</v>
+        <v>3.81063037</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0.883016075</v>
+        <v>0.685816093</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>0.901448086</v>
+        <v>0.698014888</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>0.536909109</v>
+        <v>2.89027307</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>0.0912006378</v>
+        <v>0.196725817</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>0.0752267273</v>
+        <v>0.188070486</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>0.410038481</v>
+        <v>2.03351507</v>
       </c>
       <c r="S45" s="0" t="s">
         <v>17</v>
@@ -2712,49 +2712,49 @@
         <v>100</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>127.321855</v>
+        <v>25.455467</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>4177.43962</v>
+        <v>233.707264</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.949848822</v>
+        <v>0.984228665</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>6.21841471E-063</v>
+        <v>6.94674027E-093</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>3.81063037</v>
+        <v>0.415932125</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0.685816093</v>
+        <v>0.971055872</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>0.698014888</v>
+        <v>0.989988467</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>2.89027307</v>
+        <v>0.108850076</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>0.196725817</v>
+        <v>0.0243420481</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0.188070486</v>
+        <v>0.00673405755</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>2.03351507</v>
+        <v>0.108873845</v>
       </c>
       <c r="S46" s="0" t="s">
         <v>17</v>
@@ -2765,10 +2765,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>100</v>
@@ -2780,37 +2780,37 @@
         <v>1</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>5.14624903</v>
+        <v>583.565328</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>70.7446336</v>
+        <v>22211.3809</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.987006039</v>
+        <v>0.953385049</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>6.13271178E-098</v>
+        <v>8.28840478E-065</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0.0761638137</v>
+        <v>16.7913265</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0.940805806</v>
+        <v>0.642226289</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>0.958722352</v>
+        <v>0.652976158</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>0.178203347</v>
+        <v>3.51443196</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>0.0469868072</v>
+        <v>0.210111656</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>0.0306214405</v>
+        <v>0.20301504</v>
       </c>
       <c r="P47" s="0" t="n">
-        <v>0.168686036</v>
+        <v>2.33174694</v>
       </c>
       <c r="S47" s="0" t="s">
         <v>17</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>20</v>
@@ -2833,40 +2833,40 @@
         <v>0.05</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>40.3838779</v>
+        <v>-0.000182275622</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>809.604655</v>
+        <v>0.0276738768</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.979325957</v>
-      </c>
-      <c r="I48" s="1" t="n">
-        <v>7.78230685E-086</v>
+        <v>-0.0640289578</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.481689798</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.758332103</v>
+        <v>0.000258266098</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0.84901216</v>
+        <v>0.975874904</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>0.866062583</v>
+        <v>0.99999793</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>0.72103586</v>
+        <v>0.171280233</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>0.115792691</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>0.101421262</v>
+        <v>0.0232707074</v>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>2.2867248E-005</v>
       </c>
       <c r="P48" s="0" t="n">
-        <v>0.57515367</v>
+        <v>0.177447036</v>
       </c>
       <c r="S48" s="0" t="s">
         <v>17</v>

--- a/result/deepLearning/parameterTuning_04_27_2016.xlsx
+++ b/result/deepLearning/parameterTuning_04_27_2016.xlsx
@@ -87,6 +87,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -175,7 +176,7 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -245,7 +246,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -254,43 +255,43 @@
         <v>100</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>32.335089</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0</v>
+        <v>149.440198</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
+        <v>0.993311186</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2.6328874E-115</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0</v>
+        <v>0.34171037</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.97753018</v>
+        <v>0.977679285</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>1</v>
+        <v>0.996553122</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.15848966</v>
+        <v>0.0789440818</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0.02154245</v>
+        <v>0.0205205796</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0</v>
+        <v>0.00251674803</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0.16422066</v>
+        <v>0.0824769226</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>17</v>
@@ -310,43 +311,43 @@
         <v>100</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.297079571</v>
+        <v>16.5168744</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>14.1373426</v>
+        <v>108.244171</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.646063087</v>
+        <v>0.989710808</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>7.07299368E-016</v>
+        <v>4.89697641E-104</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.0319073945</v>
+        <v>0.217076339</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.976060216</v>
+        <v>0.957794966</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.998375979</v>
+        <v>0.976661017</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.159831753</v>
+        <v>0.156966812</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.022436879</v>
+        <v>0.0371172716</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.00149509104</v>
+        <v>0.0198402669</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.164912225</v>
+        <v>0.157195102</v>
       </c>
       <c r="S3" s="0" t="s">
         <v>17</v>
@@ -366,43 +367,43 @@
         <v>100</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>5.14624903</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0</v>
+        <v>70.7446336</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
+        <v>0.987006039</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>6.13271178E-098</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0</v>
+        <v>0.0761638137</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.97751238</v>
+        <v>0.940805806</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1</v>
+        <v>0.958722352</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.15886065</v>
+        <v>0.178203347</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.02152378</v>
+        <v>0.0469868072</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0</v>
+        <v>0.0306214405</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.16319502</v>
+        <v>0.168686036</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>17</v>
@@ -416,49 +417,49 @@
         <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.0939817492</v>
+        <v>23.6143146</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>4.03376071</v>
+        <v>19.4678788</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.645767776</v>
+        <v>0.985574703</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>7.36196632E-016</v>
+        <v>3.27356788E-095</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.0101018934</v>
+        <v>0.368636731</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.97579723</v>
+        <v>0.97732326</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.998070379</v>
+        <v>0.997474619</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.160432574</v>
+        <v>0.105402723</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.022609388</v>
+        <v>0.0211811148</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.00187973497</v>
+        <v>0.0023498452</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.164027616</v>
+        <v>0.108392154</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>17</v>
@@ -469,7 +470,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>10</v>
@@ -478,43 +479,43 @@
         <v>100</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.787021381</v>
+        <v>25.455467</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>11.4663522</v>
+        <v>233.707264</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.844644928</v>
+        <v>0.984228665</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>1.24302827E-034</v>
+        <v>6.94674027E-093</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.0453459784</v>
+        <v>0.415932125</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.976897095</v>
+        <v>0.971055872</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.998786663</v>
+        <v>0.989988467</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.157527987</v>
+        <v>0.108850076</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.0217780983</v>
+        <v>0.0243420481</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.00118191434</v>
+        <v>0.00673405755</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.162898383</v>
+        <v>0.108873845</v>
       </c>
       <c r="S6" s="0" t="s">
         <v>17</v>
@@ -525,52 +526,52 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>11.2367334</v>
+        <v>9.33455619</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>98.0786916</v>
+        <v>84.4979529</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.959183679</v>
+        <v>0.979502025</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>3.18740536E-068</v>
+        <v>4.66276152E-086</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.301161964</v>
+        <v>0.17451353</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.960079491</v>
+        <v>0.975051621</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.980022315</v>
+        <v>0.993959965</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.168732432</v>
+        <v>0.0979669907</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.0367644823</v>
+        <v>0.0221638495</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.0184128424</v>
+        <v>0.00423656012</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.17011992</v>
+        <v>0.0950873754</v>
       </c>
       <c r="S7" s="0" t="s">
         <v>17</v>
@@ -581,7 +582,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>20</v>
@@ -590,43 +591,43 @@
         <v>100</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.265985668</v>
+        <v>40.3838779</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>4.66974294</v>
+        <v>809.604655</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.854053844</v>
+        <v>0.979325957</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>3.81875849E-036</v>
+        <v>7.78230685E-086</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.0147277974</v>
+        <v>0.758332103</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.976401413</v>
+        <v>0.84901216</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.99809099</v>
+        <v>0.866062583</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.157956798</v>
+        <v>0.72103586</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.0219684051</v>
+        <v>0.115792691</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.00177311884</v>
+        <v>0.101421262</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.16165448</v>
+        <v>0.57515367</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>17</v>
@@ -637,52 +638,52 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3.5656246</v>
+        <v>19.3568112</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>42.4760918</v>
+        <v>143.706017</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.961171314</v>
+        <v>0.978166774</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>1.65001036E-069</v>
+        <v>2.03993651E-084</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.0930628283</v>
+        <v>0.373868284</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.95289264</v>
+        <v>0.976524469</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.972151936</v>
+        <v>0.998039155</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.176979293</v>
+        <v>0.1131772</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.0419016912</v>
+        <v>0.0223293546</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.0243237891</v>
+        <v>0.00152726049</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.173804615</v>
+        <v>0.121921026</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>17</v>
@@ -693,7 +694,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10</v>
@@ -708,37 +709,37 @@
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>4.55783119</v>
+        <v>18.5011453</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>-3.04403125</v>
+        <v>94.155926</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.946847202</v>
+        <v>0.978137781</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>1.91369413E-061</v>
+        <v>2.20857497E-084</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.140771472</v>
+        <v>0.357586636</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.977169296</v>
+        <v>0.977356156</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.998544744</v>
+        <v>0.997805691</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.1470499</v>
+        <v>0.107517879</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.0216812363</v>
+        <v>0.021166071</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.00149000403</v>
+        <v>0.00173953679</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.151826255</v>
+        <v>0.114226631</v>
       </c>
       <c r="S10" s="0" t="s">
         <v>17</v>
@@ -752,7 +753,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>100</v>
@@ -764,37 +765,37 @@
         <v>1</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>13.2692172</v>
+        <v>4.36025438</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>60.3617018</v>
+        <v>43.1001687</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.977479852</v>
+        <v>0.97794145</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>1.302322E-083</v>
+        <v>3.77133574E-084</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.260427271</v>
+        <v>0.0846645268</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.96280153</v>
+        <v>0.949512516</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.982648168</v>
+        <v>0.968336687</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.159641668</v>
+        <v>0.176201755</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.0348467848</v>
+        <v>0.0442374654</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.0164898226</v>
+        <v>0.0270597119</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.162454537</v>
+        <v>0.172221689</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>17</v>
@@ -808,7 +809,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>100</v>
@@ -817,40 +818,40 @@
         <v>0.01</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1.15850988</v>
+        <v>13.2692172</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>3.66794251</v>
+        <v>60.3617018</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.905174353</v>
+        <v>0.977479852</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>8.75397721E-047</v>
+        <v>1.302322E-083</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.0494544169</v>
+        <v>0.260427271</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.977006398</v>
+        <v>0.96280153</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.998442744</v>
+        <v>0.982648168</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.147477798</v>
+        <v>0.159641668</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.0217950427</v>
+        <v>0.0348467848</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.001656288</v>
+        <v>0.0164898226</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0.151936276</v>
+        <v>0.162454537</v>
       </c>
       <c r="S12" s="0" t="s">
         <v>17</v>
@@ -870,43 +871,43 @@
         <v>100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>4.36025438</v>
+        <v>7.25724199</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>43.1001687</v>
+        <v>3.67253846</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.97794145</v>
+        <v>0.976865728</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>3.77133574E-084</v>
+        <v>6.51243047E-083</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.0846645268</v>
+        <v>0.144431044</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.949512516</v>
+        <v>0.976672199</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.968336687</v>
+        <v>0.997100919</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.176201755</v>
+        <v>0.111961332</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.0442374654</v>
+        <v>0.0216142548</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.0270597119</v>
+        <v>0.00278658676</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.172221689</v>
+        <v>0.114462076</v>
       </c>
       <c r="S13" s="0" t="s">
         <v>17</v>
@@ -917,7 +918,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>10</v>
@@ -929,40 +930,40 @@
         <v>0.05</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>23.6143146</v>
+        <v>156.754191</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>19.4678788</v>
+        <v>4398.10747</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.985574703</v>
+        <v>0.96508833</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>3.27356788E-095</v>
+        <v>2.97962472E-072</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.368636731</v>
+        <v>3.86754844</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.97732326</v>
+        <v>0.829566337</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.997474619</v>
+        <v>0.845756877</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.105402723</v>
+        <v>0.757389902</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.0211811148</v>
+        <v>0.124374906</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.0023498452</v>
+        <v>0.110893919</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.108392154</v>
+        <v>0.552682533</v>
       </c>
       <c r="S14" s="0" t="s">
         <v>17</v>
@@ -976,49 +977,49 @@
         <v>20</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>16.5168744</v>
+        <v>3.5656246</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>108.244171</v>
+        <v>42.4760918</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.989710808</v>
+        <v>0.961171314</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>4.89697641E-104</v>
+        <v>1.65001036E-069</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.217076339</v>
+        <v>0.0930628283</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.957794966</v>
+        <v>0.95289264</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.976661017</v>
+        <v>0.972151936</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.156966812</v>
+        <v>0.176979293</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.0371172716</v>
+        <v>0.0419016912</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.0198402669</v>
+        <v>0.0243237891</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.157195102</v>
+        <v>0.173804615</v>
       </c>
       <c r="S15" s="0" t="s">
         <v>17</v>
@@ -1029,7 +1030,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>20</v>
@@ -1038,43 +1039,43 @@
         <v>100</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>7.25724199</v>
+        <v>5.41213611</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>3.67253846</v>
+        <v>37.5425015</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.976865728</v>
+        <v>0.960947026</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>6.51243047E-083</v>
+        <v>2.32229095E-069</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.144431044</v>
+        <v>0.14168914</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.976672199</v>
+        <v>0.976260549</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.997100919</v>
+        <v>0.996563096</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.111961332</v>
+        <v>0.108789664</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.0216142548</v>
+        <v>0.0217072091</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.00278658676</v>
+        <v>0.00267221725</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.114462076</v>
+        <v>0.114287618</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>17</v>
@@ -1088,49 +1089,49 @@
         <v>20</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>5.14624903</v>
+        <v>11.2367334</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>70.7446336</v>
+        <v>98.0786916</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.987006039</v>
+        <v>0.959183679</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>6.13271178E-098</v>
+        <v>3.18740536E-068</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.0761638137</v>
+        <v>0.301161964</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0.940805806</v>
+        <v>0.960079491</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0.958722352</v>
+        <v>0.980022315</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0.178203347</v>
+        <v>0.168732432</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.0469868072</v>
+        <v>0.0367644823</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.0306214405</v>
+        <v>0.0184128424</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.168686036</v>
+        <v>0.17011992</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>17</v>
@@ -1141,7 +1142,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
@@ -1150,43 +1151,43 @@
         <v>100</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.692418955</v>
+        <v>487.708087</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>34.77227</v>
+        <v>13305.7587</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.695065546</v>
+        <v>0.955280925</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>4.72280704E-019</v>
+        <v>7.11460921E-066</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0.0651098955</v>
+        <v>13.7242037</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0.9742809</v>
+        <v>0.742606962</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0.997016533</v>
+        <v>0.756458367</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>0.164792673</v>
+        <v>2.64539498</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.0235836539</v>
+        <v>0.185033369</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.00262470981</v>
+        <v>0.174701503</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>0.169667518</v>
+        <v>1.96963658</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>17</v>
@@ -1197,7 +1198,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>10</v>
@@ -1206,43 +1207,43 @@
         <v>100</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>41.0024227</v>
+        <v>583.565328</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1469.80764</v>
+        <v>22211.3809</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.873443252</v>
+        <v>0.953385049</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1.25990763E-039</v>
+        <v>8.28840478E-065</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>2.07799771</v>
+        <v>16.7913265</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>0.932549897</v>
+        <v>0.642226289</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0.953229209</v>
+        <v>0.652976158</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>0.320390888</v>
+        <v>3.51443196</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.0523004956</v>
+        <v>0.210111656</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.0340817615</v>
+        <v>0.20301504</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>0.254264707</v>
+        <v>2.33174694</v>
       </c>
       <c r="S19" s="0" t="s">
         <v>17</v>
@@ -1253,52 +1254,52 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.242368935</v>
+        <v>5.41965709</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>12.660768</v>
+        <v>69.795131</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.724973305</v>
+        <v>0.95294847</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>2.53342904E-021</v>
+        <v>1.43789942E-064</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.0209334529</v>
+        <v>0.156726334</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0.973458286</v>
+        <v>0.976219119</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0.996066093</v>
+        <v>0.999177555</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>0.164447877</v>
+        <v>0.149398091</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.0238985048</v>
+        <v>0.0226582556</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>0.00314381125</v>
+        <v>0.00069116145</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>0.168767671</v>
+        <v>0.158473221</v>
       </c>
       <c r="S20" s="0" t="s">
         <v>17</v>
@@ -1309,7 +1310,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>20</v>
@@ -1318,43 +1319,43 @@
         <v>100</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>10.3788047</v>
+        <v>127.321855</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>366.036148</v>
+        <v>4177.43962</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.875053305</v>
+        <v>0.949848822</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>6.10540363E-040</v>
+        <v>6.21841471E-063</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.521902455</v>
+        <v>3.81063037</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0.932977412</v>
+        <v>0.685816093</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>0.953717963</v>
+        <v>0.698014888</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>0.320851035</v>
+        <v>2.89027307</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.0516963126</v>
+        <v>0.196725817</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.0333653943</v>
+        <v>0.188070486</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>0.256422334</v>
+        <v>2.03351507</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>17</v>
@@ -1365,7 +1366,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>10</v>
@@ -1377,40 +1378,40 @@
         <v>0.005</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3.01627016</v>
+        <v>391.887934</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>31.7535548</v>
+        <v>11357.6596</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.924405174</v>
+        <v>0.949323863</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1.74541335E-052</v>
+        <v>1.14932574E-062</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.113138256</v>
+        <v>11.7950166</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>0.976850615</v>
+        <v>0.788739724</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0.999256842</v>
+        <v>0.80445724</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>0.153031662</v>
+        <v>2.17339983</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.0219187179</v>
+        <v>0.155091876</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.000708820002</v>
+        <v>0.142633885</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>0.159765206</v>
+        <v>1.60104998</v>
       </c>
       <c r="S22" s="0" t="s">
         <v>17</v>
@@ -1430,43 +1431,43 @@
         <v>100</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>124.082972</v>
+        <v>140.0808</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>4341.089</v>
+        <v>4613.81039</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.941303798</v>
+        <v>0.948173918</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>6.54680628E-059</v>
+        <v>4.31539607E-062</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>4.04521348</v>
+        <v>4.26762229</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>0.851796972</v>
+        <v>0.836372873</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0.869018093</v>
+        <v>0.852896554</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>0.662526731</v>
+        <v>0.722620431</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.10849443</v>
+        <v>0.118133127</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0.0939143139</v>
+        <v>0.104385218</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>0.462194129</v>
+        <v>0.510604551</v>
       </c>
       <c r="S23" s="0" t="s">
         <v>17</v>
@@ -1477,52 +1478,52 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1.48476059</v>
+        <v>4.55783119</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>19.1737719</v>
+        <v>-3.04403125</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.945172377</v>
+        <v>0.946847202</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>1.18890692E-060</v>
+        <v>1.91369413E-061</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.0466370938</v>
+        <v>0.140771472</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0.975924989</v>
+        <v>0.977169296</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.997517949</v>
+        <v>0.998544744</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>0.146753051</v>
+        <v>0.1470499</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.0221361676</v>
+        <v>0.0216812363</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.0019875184</v>
+        <v>0.00149000403</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.152193547</v>
+        <v>0.151826255</v>
       </c>
       <c r="S24" s="0" t="s">
         <v>17</v>
@@ -1545,40 +1546,40 @@
         <v>0.005</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>24.3369818</v>
+        <v>1.48476059</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>809.760701</v>
+        <v>19.1737719</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.937734918</v>
+        <v>0.945172377</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>2.09022035E-057</v>
+        <v>1.18890692E-060</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.819527269</v>
+        <v>0.0466370938</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0.890478818</v>
+        <v>0.975924989</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0.90928069</v>
+        <v>0.997517949</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>0.528897091</v>
+        <v>0.146753051</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.0850538065</v>
+        <v>0.0221361676</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.0686260787</v>
+        <v>0.0019875184</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>0.38623614</v>
+        <v>0.152193547</v>
       </c>
       <c r="S25" s="0" t="s">
         <v>17</v>
@@ -1598,43 +1599,43 @@
         <v>100</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>18.5011453</v>
+        <v>124.082972</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>94.155926</v>
+        <v>4341.089</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.978137781</v>
+        <v>0.941303798</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>2.20857497E-084</v>
+        <v>6.54680628E-059</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.357586636</v>
+        <v>4.04521348</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0.977356156</v>
+        <v>0.851796972</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0.997805691</v>
+        <v>0.869018093</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0.107517879</v>
+        <v>0.662526731</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.021166071</v>
+        <v>0.10849443</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.00173953679</v>
+        <v>0.0939143139</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0.114226631</v>
+        <v>0.462194129</v>
       </c>
       <c r="S26" s="0" t="s">
         <v>17</v>
@@ -1648,7 +1649,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>100</v>
@@ -1660,37 +1661,37 @@
         <v>1</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>140.0808</v>
+        <v>25.2035642</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>4613.81039</v>
+        <v>758.017467</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.948173918</v>
+        <v>0.941229187</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>4.31539607E-062</v>
+        <v>7.05393028E-059</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>4.26762229</v>
+        <v>0.822229675</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.836372873</v>
+        <v>0.883016075</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0.852896554</v>
+        <v>0.901448086</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>0.722620431</v>
+        <v>0.536909109</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.118133127</v>
+        <v>0.0912006378</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0.104385218</v>
+        <v>0.0752267273</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>0.510604551</v>
+        <v>0.410038481</v>
       </c>
       <c r="S27" s="0" t="s">
         <v>17</v>
@@ -1701,7 +1702,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>20</v>
@@ -1710,43 +1711,43 @@
         <v>100</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>5.41213611</v>
+        <v>89.4311041</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>37.5425015</v>
+        <v>2783.69623</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.960947026</v>
+        <v>0.94121226</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>2.32229095E-069</v>
+        <v>7.17424058E-059</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.14168914</v>
+        <v>2.91801974</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0.976260549</v>
+        <v>0.777109228</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0.996563096</v>
+        <v>0.792446804</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>0.108789664</v>
+        <v>2.02004804</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.0217072091</v>
+        <v>0.160065014</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.00267221725</v>
+        <v>0.148097515</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>0.114287618</v>
+        <v>1.46464215</v>
       </c>
       <c r="S28" s="0" t="s">
         <v>17</v>
@@ -1766,43 +1767,43 @@
         <v>100</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>25.2035642</v>
+        <v>24.3369818</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>758.017467</v>
+        <v>809.760701</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.941229187</v>
+        <v>0.937734918</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>7.05393028E-059</v>
+        <v>2.09022035E-057</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.822229675</v>
+        <v>0.819527269</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0.883016075</v>
+        <v>0.890478818</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0.901448086</v>
+        <v>0.90928069</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>0.536909109</v>
+        <v>0.528897091</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.0912006378</v>
+        <v>0.0850538065</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.0752267273</v>
+        <v>0.0686260787</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>0.410038481</v>
+        <v>0.38623614</v>
       </c>
       <c r="S29" s="0" t="s">
         <v>17</v>
@@ -1822,43 +1823,43 @@
         <v>100</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>32.335089</v>
+        <v>3.01627016</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>149.440198</v>
+        <v>31.7535548</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.993311186</v>
+        <v>0.924405174</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>2.6328874E-115</v>
+        <v>1.74541335E-052</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.34171037</v>
+        <v>0.113138256</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0.977679285</v>
+        <v>0.976850615</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0.996553122</v>
+        <v>0.999256842</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>0.0789440818</v>
+        <v>0.153031662</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.0205205796</v>
+        <v>0.0219187179</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.00251674803</v>
+        <v>0.000708820002</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0.0824769226</v>
+        <v>0.159765206</v>
       </c>
       <c r="S30" s="0" t="s">
         <v>17</v>
@@ -1869,52 +1870,52 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>156.754191</v>
+        <v>1.15850988</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>4398.10747</v>
+        <v>3.66794251</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.96508833</v>
+        <v>0.905174353</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>2.97962472E-072</v>
+        <v>8.75397721E-047</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>3.86754844</v>
+        <v>0.0494544169</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0.829566337</v>
+        <v>0.977006398</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0.845756877</v>
+        <v>0.998442744</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>0.757389902</v>
+        <v>0.147477798</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>0.124374906</v>
+        <v>0.0217950427</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0.110893919</v>
+        <v>0.001656288</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>0.552682533</v>
+        <v>0.151936276</v>
       </c>
       <c r="S31" s="0" t="s">
         <v>17</v>
@@ -1925,7 +1926,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>20</v>
@@ -1937,40 +1938,40 @@
         <v>0.05</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>9.33455619</v>
+        <v>50.1426471</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>84.4979529</v>
+        <v>2888.96205</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.979502025</v>
+        <v>0.900541458</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>4.66276152E-086</v>
+        <v>1.36067094E-045</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.17451353</v>
+        <v>2.20074934</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0.975051621</v>
+        <v>0.81917781</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0.993959965</v>
+        <v>0.837361618</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>0.0979669907</v>
+        <v>1.47147552</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>0.0221638495</v>
+        <v>0.0957136668</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>0.00423656012</v>
+        <v>0.0805517821</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>0.0950873754</v>
+        <v>0.884904861</v>
       </c>
       <c r="S32" s="0" t="s">
         <v>17</v>
@@ -1981,7 +1982,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>20</v>
@@ -1990,43 +1991,43 @@
         <v>100</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>40.3838779</v>
+        <v>31.8378181</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>809.604655</v>
+        <v>1433.33435</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.979325957</v>
+        <v>0.892110324</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>7.78230685E-086</v>
+        <v>1.44169766E-043</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.758332103</v>
+        <v>1.46586919</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>0.84901216</v>
+        <v>0.90252718</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0.866062583</v>
+        <v>0.923451997</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>0.72103586</v>
+        <v>0.839837959</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.115792691</v>
+        <v>0.0673119468</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0.101421262</v>
+        <v>0.0495980448</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>0.57515367</v>
+        <v>0.561863665</v>
       </c>
       <c r="S33" s="0" t="s">
         <v>17</v>
@@ -2040,49 +2041,49 @@
         <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1.41345704</v>
+        <v>1.2015383</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>52.2402753</v>
+        <v>11.7866018</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.825673403</v>
+        <v>0.876783238</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>7.24113089E-032</v>
+        <v>2.77190618E-040</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.0877960556</v>
+        <v>0.0599093558</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>0.97333846</v>
+        <v>0.976072724</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0.996622562</v>
+        <v>0.999917469</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>0.170147366</v>
+        <v>0.155611011</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.02431588</v>
+        <v>0.0231010248</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.00311839361</v>
+        <v>0.000155616468</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>0.174848423</v>
+        <v>0.163928839</v>
       </c>
       <c r="S34" s="0" t="s">
         <v>17</v>
@@ -2093,10 +2094,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>100</v>
@@ -2108,37 +2109,37 @@
         <v>1</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>76.8053295</v>
+        <v>10.3788047</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>3523.49067</v>
+        <v>366.036148</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.854455295</v>
+        <v>0.875053305</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>3.27369345E-036</v>
+        <v>6.10540363E-040</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>4.24537165</v>
+        <v>0.521902455</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.935874866</v>
+        <v>0.932977412</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0.958095228</v>
+        <v>0.953717963</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>0.566270716</v>
+        <v>0.320851035</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.0465545429</v>
+        <v>0.0516963126</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.0276988035</v>
+        <v>0.0333653943</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>0.397466373</v>
+        <v>0.256422334</v>
       </c>
       <c r="S35" s="0" t="s">
         <v>17</v>
@@ -2149,10 +2150,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>100</v>
@@ -2161,40 +2162,40 @@
         <v>0.001</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0.225219898</v>
+        <v>41.0024227</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>9.08419792</v>
+        <v>1469.80764</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.771833494</v>
+        <v>0.873443252</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>1.49137663E-025</v>
+        <v>1.25990763E-039</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.0168666119</v>
+        <v>2.07799771</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0.973718998</v>
+        <v>0.932549897</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0.997335947</v>
+        <v>0.953229209</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0.171827711</v>
+        <v>0.320390888</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>0.0242545148</v>
+        <v>0.0523004956</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0.00260945758</v>
+        <v>0.0340817615</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>0.176302783</v>
+        <v>0.254264707</v>
       </c>
       <c r="S36" s="0" t="s">
         <v>17</v>
@@ -2208,7 +2209,7 @@
         <v>100</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>100</v>
@@ -2220,37 +2221,37 @@
         <v>1</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>31.8378181</v>
+        <v>76.8053295</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1433.33435</v>
+        <v>3523.49067</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.892110324</v>
+        <v>0.854455295</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>1.44169766E-043</v>
+        <v>3.27369345E-036</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>1.46586919</v>
+        <v>4.24537165</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.90252718</v>
+        <v>0.935874866</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.923451997</v>
+        <v>0.958095228</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0.839837959</v>
+        <v>0.566270716</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.0673119468</v>
+        <v>0.0465545429</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.0495980448</v>
+        <v>0.0276988035</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0.561863665</v>
+        <v>0.397466373</v>
       </c>
       <c r="S37" s="0" t="s">
         <v>17</v>
@@ -2261,10 +2262,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>100</v>
@@ -2276,37 +2277,37 @@
         <v>0</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>5.41965709</v>
+        <v>0.265985668</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>69.795131</v>
+        <v>4.66974294</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.95294847</v>
+        <v>0.854053844</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>1.43789942E-064</v>
+        <v>3.81875849E-036</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.156726334</v>
+        <v>0.0147277974</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0.976219119</v>
+        <v>0.976401413</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.999177555</v>
+        <v>0.99809099</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0.149398091</v>
+        <v>0.157956798</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>0.0226582556</v>
+        <v>0.0219684051</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0.00069116145</v>
+        <v>0.00177311884</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>0.158473221</v>
+        <v>0.16165448</v>
       </c>
       <c r="S38" s="0" t="s">
         <v>17</v>
@@ -2317,7 +2318,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>10</v>
@@ -2329,40 +2330,40 @@
         <v>0.005</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>391.887934</v>
+        <v>0.787021381</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>11357.6596</v>
+        <v>11.4663522</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.949323863</v>
+        <v>0.844644928</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>1.14932574E-062</v>
+        <v>1.24302827E-034</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>11.7950166</v>
+        <v>0.0453459784</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>0.788739724</v>
+        <v>0.976897095</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0.80445724</v>
+        <v>0.998786663</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>2.17339983</v>
+        <v>0.157527987</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.155091876</v>
+        <v>0.0217780983</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.142633885</v>
+        <v>0.00118191434</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>1.60104998</v>
+        <v>0.162898383</v>
       </c>
       <c r="S39" s="0" t="s">
         <v>17</v>
@@ -2376,49 +2377,49 @@
         <v>100</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.147463851</v>
+        <v>1.41345704</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>2.79051559</v>
+        <v>52.2402753</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.696408944</v>
+        <v>0.825673403</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>3.78611617E-019</v>
+        <v>7.24113089E-032</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.0138145999</v>
+        <v>0.0877960556</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>0.975958101</v>
+        <v>0.97333846</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0.999937391</v>
+        <v>0.996622562</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>0.168841205</v>
+        <v>0.170147366</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.0232004657</v>
+        <v>0.02431588</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.000124474629</v>
+        <v>0.00311839361</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>0.175383858</v>
+        <v>0.174848423</v>
       </c>
       <c r="S40" s="0" t="s">
         <v>17</v>
@@ -2438,43 +2439,43 @@
         <v>100</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>89.4311041</v>
+        <v>0.225219898</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>2783.69623</v>
+        <v>9.08419792</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.94121226</v>
+        <v>0.771833494</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>7.17424058E-059</v>
+        <v>1.49137663E-025</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>2.91801974</v>
+        <v>0.0168666119</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0.777109228</v>
+        <v>0.973718998</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0.792446804</v>
+        <v>0.997335947</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>2.02004804</v>
+        <v>0.171827711</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0.160065014</v>
+        <v>0.0242545148</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.148097515</v>
+        <v>0.00260945758</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>1.46464215</v>
+        <v>0.176302783</v>
       </c>
       <c r="S41" s="0" t="s">
         <v>17</v>
@@ -2485,52 +2486,52 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>19.3568112</v>
+        <v>0.242368935</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>143.706017</v>
+        <v>12.660768</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.978166774</v>
+        <v>0.724973305</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>2.03993651E-084</v>
+        <v>2.53342904E-021</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.373868284</v>
+        <v>0.0209334529</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0.976524469</v>
+        <v>0.973458286</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0.998039155</v>
+        <v>0.996066093</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>0.1131772</v>
+        <v>0.164447877</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>0.0223293546</v>
+        <v>0.0238985048</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>0.00152726049</v>
+        <v>0.00314381125</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>0.121921026</v>
+        <v>0.168767671</v>
       </c>
       <c r="S42" s="0" t="s">
         <v>17</v>
@@ -2544,49 +2545,49 @@
         <v>100</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>487.708087</v>
+        <v>0.147463851</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>13305.7587</v>
+        <v>2.79051559</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.955280925</v>
+        <v>0.696408944</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>7.11460921E-066</v>
+        <v>3.78611617E-019</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>13.7242037</v>
+        <v>0.0138145999</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0.742606962</v>
+        <v>0.975958101</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>0.756458367</v>
+        <v>0.999937391</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>2.64539498</v>
+        <v>0.168841205</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.185033369</v>
+        <v>0.0232004657</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>0.174701503</v>
+        <v>0.000124474629</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>1.96963658</v>
+        <v>0.175383858</v>
       </c>
       <c r="S43" s="0" t="s">
         <v>17</v>
@@ -2597,52 +2598,52 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1.2015383</v>
+        <v>0.692418955</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>11.7866018</v>
+        <v>34.77227</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.876783238</v>
+        <v>0.695065546</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>2.77190618E-040</v>
+        <v>4.72280704E-019</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.0599093558</v>
+        <v>0.0651098955</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0.976072724</v>
+        <v>0.9742809</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>0.999917469</v>
+        <v>0.997016533</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>0.155611011</v>
+        <v>0.164792673</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>0.0231010248</v>
+        <v>0.0235836539</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0.000155616468</v>
+        <v>0.00262470981</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>0.163928839</v>
+        <v>0.169667518</v>
       </c>
       <c r="S44" s="0" t="s">
         <v>17</v>
@@ -2653,52 +2654,52 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>127.321855</v>
+        <v>0.297079571</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>4177.43962</v>
+        <v>14.1373426</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.949848822</v>
+        <v>0.646063087</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>6.21841471E-063</v>
+        <v>7.07299368E-016</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>3.81063037</v>
+        <v>0.0319073945</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0.685816093</v>
+        <v>0.976060216</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>0.698014888</v>
+        <v>0.998375979</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>2.89027307</v>
+        <v>0.159831753</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>0.196725817</v>
+        <v>0.022436879</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>0.188070486</v>
+        <v>0.00149509104</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>2.03351507</v>
+        <v>0.164912225</v>
       </c>
       <c r="S45" s="0" t="s">
         <v>17</v>
@@ -2709,52 +2710,52 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>25.455467</v>
+        <v>0.0939817492</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>233.707264</v>
+        <v>4.03376071</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.984228665</v>
+        <v>0.645767776</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>6.94674027E-093</v>
+        <v>7.36196632E-016</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.415932125</v>
+        <v>0.0101018934</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0.971055872</v>
+        <v>0.97579723</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>0.989988467</v>
+        <v>0.998070379</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>0.108850076</v>
+        <v>0.160432574</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>0.0243420481</v>
+        <v>0.022609388</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0.00673405755</v>
+        <v>0.00187973497</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>0.108873845</v>
+        <v>0.164027616</v>
       </c>
       <c r="S46" s="0" t="s">
         <v>17</v>
@@ -2765,7 +2766,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>10</v>
@@ -2774,43 +2775,43 @@
         <v>100</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F47" s="0" t="n">
-        <v>583.565328</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>22211.3809</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>0.953385049</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>8.28840478E-065</v>
-      </c>
       <c r="J47" s="0" t="n">
-        <v>16.7913265</v>
+        <v>0</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0.642226289</v>
+        <v>0.97753018</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>0.652976158</v>
+        <v>1</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>3.51443196</v>
+        <v>0.15848966</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>0.210111656</v>
+        <v>0.02154245</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>0.20301504</v>
+        <v>0</v>
       </c>
       <c r="P47" s="0" t="n">
-        <v>2.33174694</v>
+        <v>0.16422066</v>
       </c>
       <c r="S47" s="0" t="s">
         <v>17</v>
@@ -2821,7 +2822,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>20</v>
@@ -2830,43 +2831,43 @@
         <v>100</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>-0.000182275622</v>
+        <v>0</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.0276738768</v>
+        <v>0</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>-0.0640289578</v>
+        <v>0</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>0.481689798</v>
+        <v>1</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.000258266098</v>
+        <v>0</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0.975874904</v>
+        <v>0.97751238</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>0.99999793</v>
+        <v>1</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>0.171280233</v>
+        <v>0.15886065</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>0.0232707074</v>
-      </c>
-      <c r="O48" s="1" t="n">
-        <v>2.2867248E-005</v>
+        <v>0.02152378</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="P48" s="0" t="n">
-        <v>0.177447036</v>
+        <v>0.16319502</v>
       </c>
       <c r="S48" s="0" t="s">
         <v>17</v>
@@ -2889,40 +2890,40 @@
         <v>0.05</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>50.1426471</v>
+        <v>-0.000182275622</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>2888.96205</v>
+        <v>0.0276738768</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.900541458</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>1.36067094E-045</v>
+        <v>-0.0640289578</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.481689798</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>2.20074934</v>
+        <v>0.000258266098</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0.81917781</v>
+        <v>0.975874904</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>0.837361618</v>
+        <v>0.99999793</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>1.47147552</v>
+        <v>0.171280233</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>0.0957136668</v>
-      </c>
-      <c r="O49" s="0" t="n">
-        <v>0.0805517821</v>
+        <v>0.0232707074</v>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>2.2867248E-005</v>
       </c>
       <c r="P49" s="0" t="n">
-        <v>0.884904861</v>
+        <v>0.177447036</v>
       </c>
       <c r="S49" s="0" t="s">
         <v>17</v>

--- a/result/deepLearning/parameterTuning_04_27_2016.xlsx
+++ b/result/deepLearning/parameterTuning_04_27_2016.xlsx
@@ -105,12 +105,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,12 +153,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -175,8 +189,8 @@
   </sheetPr>
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -246,10 +260,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>100</v>
@@ -261,37 +275,37 @@
         <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>32.335089</v>
+        <v>-0.000182275622</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>149.440198</v>
+        <v>0.0276738768</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.993311186</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>2.6328874E-115</v>
+        <v>-0.0640289578</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.481689798</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.34171037</v>
+        <v>0.000258266098</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.977679285</v>
+        <v>0.975874904</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.996553122</v>
+        <v>0.99999793</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.0789440818</v>
+        <v>0.171280233</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0.0205205796</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0.00251674803</v>
+        <v>0.0232707074</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>2.2867248E-005</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0.0824769226</v>
+        <v>0.177447036</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>17</v>
@@ -311,43 +325,43 @@
         <v>100</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>16.5168744</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>108.244171</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.989710808</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>4.89697641E-104</v>
-      </c>
       <c r="J3" s="0" t="n">
-        <v>0.217076339</v>
+        <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.957794966</v>
+        <v>0.97753018</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.976661017</v>
+        <v>1</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.156966812</v>
+        <v>0.15848966</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.0371172716</v>
+        <v>0.02154245</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.0198402669</v>
+        <v>0</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.157195102</v>
+        <v>0.16422066</v>
       </c>
       <c r="S3" s="0" t="s">
         <v>17</v>
@@ -367,43 +381,43 @@
         <v>100</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>5.14624903</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>70.7446336</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.987006039</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>6.13271178E-098</v>
-      </c>
       <c r="J4" s="0" t="n">
-        <v>0.0761638137</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.940805806</v>
+        <v>0.97751238</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.958722352</v>
+        <v>1</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.178203347</v>
+        <v>0.15886065</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.0469868072</v>
+        <v>0.02152378</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.0306214405</v>
+        <v>0</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.168686036</v>
+        <v>0.16319502</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>17</v>
@@ -417,49 +431,49 @@
         <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>23.6143146</v>
+        <v>0.0939817492</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>19.4678788</v>
+        <v>4.03376071</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.985574703</v>
+        <v>0.645767776</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>3.27356788E-095</v>
+        <v>7.36196632E-016</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.368636731</v>
+        <v>0.0101018934</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.97732326</v>
+        <v>0.97579723</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.997474619</v>
+        <v>0.998070379</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.105402723</v>
+        <v>0.160432574</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.0211811148</v>
+        <v>0.022609388</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.0023498452</v>
+        <v>0.00187973497</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.108392154</v>
+        <v>0.164027616</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>17</v>
@@ -470,7 +484,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>10</v>
@@ -479,43 +493,43 @@
         <v>100</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>25.455467</v>
+        <v>0.297079571</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>233.707264</v>
+        <v>14.1373426</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.984228665</v>
+        <v>0.646063087</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>6.94674027E-093</v>
+        <v>7.07299368E-016</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.415932125</v>
+        <v>0.0319073945</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.971055872</v>
+        <v>0.976060216</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.989988467</v>
+        <v>0.998375979</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.108850076</v>
+        <v>0.159831753</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.0243420481</v>
+        <v>0.022436879</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.00673405755</v>
+        <v>0.00149509104</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.108873845</v>
+        <v>0.164912225</v>
       </c>
       <c r="S6" s="0" t="s">
         <v>17</v>
@@ -529,49 +543,49 @@
         <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>9.33455619</v>
+        <v>0.692418955</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>84.4979529</v>
+        <v>34.77227</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.979502025</v>
+        <v>0.695065546</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>4.66276152E-086</v>
+        <v>4.72280704E-019</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.17451353</v>
+        <v>0.0651098955</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.975051621</v>
+        <v>0.9742809</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.993959965</v>
+        <v>0.997016533</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.0979669907</v>
+        <v>0.164792673</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.0221638495</v>
+        <v>0.0235836539</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.00423656012</v>
+        <v>0.00262470981</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.0950873754</v>
+        <v>0.169667518</v>
       </c>
       <c r="S7" s="0" t="s">
         <v>17</v>
@@ -582,7 +596,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>20</v>
@@ -591,43 +605,43 @@
         <v>100</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>40.3838779</v>
+        <v>0.147463851</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>809.604655</v>
+        <v>2.79051559</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.979325957</v>
+        <v>0.696408944</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>7.78230685E-086</v>
+        <v>3.78611617E-019</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.758332103</v>
+        <v>0.0138145999</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.84901216</v>
+        <v>0.975958101</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.866062583</v>
+        <v>0.999937391</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.72103586</v>
+        <v>0.168841205</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.115792691</v>
+        <v>0.0232004657</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.101421262</v>
+        <v>0.000124474629</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.57515367</v>
+        <v>0.175383858</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>17</v>
@@ -638,52 +652,52 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>19.3568112</v>
+        <v>0.242368935</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>143.706017</v>
+        <v>12.660768</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.978166774</v>
+        <v>0.724973305</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>2.03993651E-084</v>
+        <v>2.53342904E-021</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.373868284</v>
+        <v>0.0209334529</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.976524469</v>
+        <v>0.973458286</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.998039155</v>
+        <v>0.996066093</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.1131772</v>
+        <v>0.164447877</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.0223293546</v>
+        <v>0.0238985048</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.00152726049</v>
+        <v>0.00314381125</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.121921026</v>
+        <v>0.168767671</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>17</v>
@@ -694,52 +708,52 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>18.5011453</v>
+        <v>0.225219898</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>94.155926</v>
+        <v>9.08419792</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.978137781</v>
+        <v>0.771833494</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>2.20857497E-084</v>
+        <v>1.49137663E-025</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.357586636</v>
+        <v>0.0168666119</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.977356156</v>
+        <v>0.973718998</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.997805691</v>
+        <v>0.997335947</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.107517879</v>
+        <v>0.171827711</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.021166071</v>
+        <v>0.0242545148</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.00173953679</v>
+        <v>0.00260945758</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.114226631</v>
+        <v>0.176302783</v>
       </c>
       <c r="S10" s="0" t="s">
         <v>17</v>
@@ -750,52 +764,52 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>4.36025438</v>
+        <v>1.41345704</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>43.1001687</v>
+        <v>52.2402753</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.97794145</v>
+        <v>0.825673403</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>3.77133574E-084</v>
+        <v>7.24113089E-032</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.0846645268</v>
+        <v>0.0877960556</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.949512516</v>
+        <v>0.97333846</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.968336687</v>
+        <v>0.996622562</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.176201755</v>
+        <v>0.170147366</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.0442374654</v>
+        <v>0.02431588</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.0270597119</v>
+        <v>0.00311839361</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.172221689</v>
+        <v>0.174848423</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>17</v>
@@ -815,43 +829,43 @@
         <v>100</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>13.2692172</v>
+        <v>0.787021381</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>60.3617018</v>
+        <v>11.4663522</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.977479852</v>
+        <v>0.844644928</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>1.302322E-083</v>
+        <v>1.24302827E-034</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.260427271</v>
+        <v>0.0453459784</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.96280153</v>
+        <v>0.976897095</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.982648168</v>
+        <v>0.998786663</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.159641668</v>
+        <v>0.157527987</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.0348467848</v>
+        <v>0.0217780983</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.0164898226</v>
+        <v>0.00118191434</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0.162454537</v>
+        <v>0.162898383</v>
       </c>
       <c r="S12" s="0" t="s">
         <v>17</v>
@@ -871,43 +885,43 @@
         <v>100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>7.25724199</v>
+        <v>0.265985668</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>3.67253846</v>
+        <v>4.66974294</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.976865728</v>
+        <v>0.854053844</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>6.51243047E-083</v>
+        <v>3.81875849E-036</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.144431044</v>
+        <v>0.0147277974</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.976672199</v>
+        <v>0.976401413</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.997100919</v>
+        <v>0.99809099</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.111961332</v>
+        <v>0.157956798</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.0216142548</v>
+        <v>0.0219684051</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.00278658676</v>
+        <v>0.00177311884</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.114462076</v>
+        <v>0.16165448</v>
       </c>
       <c r="S13" s="0" t="s">
         <v>17</v>
@@ -918,7 +932,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>10</v>
@@ -927,43 +941,43 @@
         <v>100</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>156.754191</v>
+        <v>76.8053295</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>4398.10747</v>
+        <v>3523.49067</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.96508833</v>
+        <v>0.854455295</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>2.97962472E-072</v>
+        <v>3.27369345E-036</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>3.86754844</v>
+        <v>4.24537165</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.829566337</v>
+        <v>0.935874866</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.845756877</v>
+        <v>0.958095228</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.757389902</v>
+        <v>0.566270716</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.124374906</v>
+        <v>0.0465545429</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.110893919</v>
+        <v>0.0276988035</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.552682533</v>
+        <v>0.397466373</v>
       </c>
       <c r="S14" s="0" t="s">
         <v>17</v>
@@ -974,52 +988,52 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3.5656246</v>
+        <v>41.0024227</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>42.4760918</v>
+        <v>1469.80764</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.961171314</v>
+        <v>0.873443252</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1.65001036E-069</v>
+        <v>1.25990763E-039</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.0930628283</v>
+        <v>2.07799771</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.95289264</v>
+        <v>0.932549897</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.972151936</v>
+        <v>0.953229209</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.176979293</v>
+        <v>0.320390888</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.0419016912</v>
+        <v>0.0523004956</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.0243237891</v>
+        <v>0.0340817615</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.173804615</v>
+        <v>0.254264707</v>
       </c>
       <c r="S15" s="0" t="s">
         <v>17</v>
@@ -1039,43 +1053,43 @@
         <v>100</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>5.41213611</v>
+        <v>10.3788047</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>37.5425015</v>
+        <v>366.036148</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.960947026</v>
+        <v>0.875053305</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>2.32229095E-069</v>
+        <v>6.10540363E-040</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.14168914</v>
+        <v>0.521902455</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.976260549</v>
+        <v>0.932977412</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.996563096</v>
+        <v>0.953717963</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.108789664</v>
+        <v>0.320851035</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.0217072091</v>
+        <v>0.0516963126</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.00267221725</v>
+        <v>0.0333653943</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.114287618</v>
+        <v>0.256422334</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>17</v>
@@ -1086,52 +1100,52 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>11.2367334</v>
+        <v>1.2015383</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>98.0786916</v>
+        <v>11.7866018</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.959183679</v>
+        <v>0.876783238</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>3.18740536E-068</v>
+        <v>2.77190618E-040</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.301161964</v>
+        <v>0.0599093558</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0.960079491</v>
+        <v>0.976072724</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0.980022315</v>
+        <v>0.999917469</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0.168732432</v>
+        <v>0.155611011</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.0367644823</v>
+        <v>0.0231010248</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.0184128424</v>
+        <v>0.000155616468</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.17011992</v>
+        <v>0.163928839</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>17</v>
@@ -1145,49 +1159,49 @@
         <v>100</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>487.708087</v>
+        <v>31.8378181</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>13305.7587</v>
+        <v>1433.33435</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.955280925</v>
+        <v>0.892110324</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>7.11460921E-066</v>
+        <v>1.44169766E-043</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>13.7242037</v>
+        <v>1.46586919</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0.742606962</v>
+        <v>0.90252718</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0.756458367</v>
+        <v>0.923451997</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>2.64539498</v>
+        <v>0.839837959</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.185033369</v>
+        <v>0.0673119468</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.174701503</v>
+        <v>0.0495980448</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>1.96963658</v>
+        <v>0.561863665</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>17</v>
@@ -1201,7 +1215,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>100</v>
@@ -1213,37 +1227,37 @@
         <v>1</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>583.565328</v>
+        <v>50.1426471</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>22211.3809</v>
+        <v>2888.96205</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.953385049</v>
+        <v>0.900541458</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>8.28840478E-065</v>
+        <v>1.36067094E-045</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>16.7913265</v>
+        <v>2.20074934</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>0.642226289</v>
+        <v>0.81917781</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0.652976158</v>
+        <v>0.837361618</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>3.51443196</v>
+        <v>1.47147552</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.210111656</v>
+        <v>0.0957136668</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.20301504</v>
+        <v>0.0805517821</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>2.33174694</v>
+        <v>0.884904861</v>
       </c>
       <c r="S19" s="0" t="s">
         <v>17</v>
@@ -1254,52 +1268,52 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>5.41965709</v>
+        <v>1.15850988</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>69.795131</v>
+        <v>3.66794251</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.95294847</v>
+        <v>0.905174353</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1.43789942E-064</v>
+        <v>8.75397721E-047</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.156726334</v>
+        <v>0.0494544169</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0.976219119</v>
+        <v>0.977006398</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0.999177555</v>
+        <v>0.998442744</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>0.149398091</v>
+        <v>0.147477798</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.0226582556</v>
+        <v>0.0217950427</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>0.00069116145</v>
+        <v>0.001656288</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>0.158473221</v>
+        <v>0.151936276</v>
       </c>
       <c r="S20" s="0" t="s">
         <v>17</v>
@@ -1310,52 +1324,52 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>127.321855</v>
+        <v>3.01627016</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>4177.43962</v>
+        <v>31.7535548</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.949848822</v>
+        <v>0.924405174</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>6.21841471E-063</v>
+        <v>1.74541335E-052</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>3.81063037</v>
+        <v>0.113138256</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0.685816093</v>
+        <v>0.976850615</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>0.698014888</v>
+        <v>0.999256842</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>2.89027307</v>
+        <v>0.153031662</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.196725817</v>
+        <v>0.0219187179</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.188070486</v>
+        <v>0.000708820002</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>2.03351507</v>
+        <v>0.159765206</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>17</v>
@@ -1366,10 +1380,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>100</v>
@@ -1381,37 +1395,37 @@
         <v>1</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>391.887934</v>
+        <v>24.3369818</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>11357.6596</v>
+        <v>809.760701</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.949323863</v>
+        <v>0.937734918</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1.14932574E-062</v>
+        <v>2.09022035E-057</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>11.7950166</v>
+        <v>0.819527269</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>0.788739724</v>
+        <v>0.890478818</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0.80445724</v>
+        <v>0.90928069</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>2.17339983</v>
+        <v>0.528897091</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.155091876</v>
+        <v>0.0850538065</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.142633885</v>
+        <v>0.0686260787</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>1.60104998</v>
+        <v>0.38623614</v>
       </c>
       <c r="S22" s="0" t="s">
         <v>17</v>
@@ -1422,52 +1436,52 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>140.0808</v>
+        <v>89.4311041</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>4613.81039</v>
+        <v>2783.69623</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.948173918</v>
+        <v>0.94121226</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>4.31539607E-062</v>
+        <v>7.17424058E-059</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>4.26762229</v>
+        <v>2.91801974</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>0.836372873</v>
+        <v>0.777109228</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0.852896554</v>
+        <v>0.792446804</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>0.722620431</v>
+        <v>2.02004804</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.118133127</v>
+        <v>0.160065014</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0.104385218</v>
+        <v>0.148097515</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>0.510604551</v>
+        <v>1.46464215</v>
       </c>
       <c r="S23" s="0" t="s">
         <v>17</v>
@@ -1478,10 +1492,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>100</v>
@@ -1490,40 +1504,40 @@
         <v>0.01</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>4.55783119</v>
+        <v>25.2035642</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>-3.04403125</v>
+        <v>758.017467</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.946847202</v>
+        <v>0.941229187</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>1.91369413E-061</v>
+        <v>7.05393028E-059</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.140771472</v>
+        <v>0.822229675</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0.977169296</v>
+        <v>0.883016075</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.998544744</v>
+        <v>0.901448086</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>0.1470499</v>
+        <v>0.536909109</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.0216812363</v>
+        <v>0.0912006378</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.00149000403</v>
+        <v>0.0752267273</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.151826255</v>
+        <v>0.410038481</v>
       </c>
       <c r="S24" s="0" t="s">
         <v>17</v>
@@ -1537,7 +1551,7 @@
         <v>50</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>100</v>
@@ -1546,40 +1560,40 @@
         <v>0.005</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1.48476059</v>
+        <v>124.082972</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>19.1737719</v>
+        <v>4341.089</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.945172377</v>
+        <v>0.941303798</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>1.18890692E-060</v>
+        <v>6.54680628E-059</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.0466370938</v>
+        <v>4.04521348</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0.975924989</v>
+        <v>0.851796972</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0.997517949</v>
+        <v>0.869018093</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>0.146753051</v>
+        <v>0.662526731</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.0221361676</v>
+        <v>0.10849443</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.0019875184</v>
+        <v>0.0939143139</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>0.152193547</v>
+        <v>0.462194129</v>
       </c>
       <c r="S25" s="0" t="s">
         <v>17</v>
@@ -1593,7 +1607,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>100</v>
@@ -1602,40 +1616,40 @@
         <v>0.005</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>124.082972</v>
+        <v>1.48476059</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>4341.089</v>
+        <v>19.1737719</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.941303798</v>
+        <v>0.945172377</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>6.54680628E-059</v>
+        <v>1.18890692E-060</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>4.04521348</v>
+        <v>0.0466370938</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0.851796972</v>
+        <v>0.975924989</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0.869018093</v>
+        <v>0.997517949</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0.662526731</v>
+        <v>0.146753051</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.10849443</v>
+        <v>0.0221361676</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.0939143139</v>
+        <v>0.0019875184</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0.462194129</v>
+        <v>0.152193547</v>
       </c>
       <c r="S26" s="0" t="s">
         <v>17</v>
@@ -1646,10 +1660,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>100</v>
@@ -1658,40 +1672,40 @@
         <v>0.01</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>25.2035642</v>
+        <v>4.55783119</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>758.017467</v>
+        <v>-3.04403125</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.941229187</v>
+        <v>0.946847202</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>7.05393028E-059</v>
+        <v>1.91369413E-061</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.822229675</v>
+        <v>0.140771472</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.883016075</v>
+        <v>0.977169296</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0.901448086</v>
+        <v>0.998544744</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>0.536909109</v>
+        <v>0.1470499</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.0912006378</v>
+        <v>0.0216812363</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0.0752267273</v>
+        <v>0.00149000403</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>0.410038481</v>
+        <v>0.151826255</v>
       </c>
       <c r="S27" s="0" t="s">
         <v>17</v>
@@ -1702,52 +1716,52 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>89.4311041</v>
+        <v>140.0808</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>2783.69623</v>
+        <v>4613.81039</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.94121226</v>
+        <v>0.948173918</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>7.17424058E-059</v>
+        <v>4.31539607E-062</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>2.91801974</v>
+        <v>4.26762229</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0.777109228</v>
+        <v>0.836372873</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0.792446804</v>
+        <v>0.852896554</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>2.02004804</v>
+        <v>0.722620431</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.160065014</v>
+        <v>0.118133127</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.148097515</v>
+        <v>0.104385218</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>1.46464215</v>
+        <v>0.510604551</v>
       </c>
       <c r="S28" s="0" t="s">
         <v>17</v>
@@ -1758,10 +1772,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>100</v>
@@ -1773,37 +1787,37 @@
         <v>1</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>24.3369818</v>
+        <v>391.887934</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>809.760701</v>
+        <v>11357.6596</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.937734918</v>
+        <v>0.949323863</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>2.09022035E-057</v>
+        <v>1.14932574E-062</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.819527269</v>
+        <v>11.7950166</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0.890478818</v>
+        <v>0.788739724</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0.90928069</v>
+        <v>0.80445724</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>0.528897091</v>
+        <v>2.17339983</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.0850538065</v>
+        <v>0.155091876</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.0686260787</v>
+        <v>0.142633885</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>0.38623614</v>
+        <v>1.60104998</v>
       </c>
       <c r="S29" s="0" t="s">
         <v>17</v>
@@ -1814,52 +1828,52 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3.01627016</v>
+        <v>127.321855</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>31.7535548</v>
+        <v>4177.43962</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.924405174</v>
+        <v>0.949848822</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>1.74541335E-052</v>
+        <v>6.21841471E-063</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.113138256</v>
+        <v>3.81063037</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0.976850615</v>
+        <v>0.685816093</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0.999256842</v>
+        <v>0.698014888</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>0.153031662</v>
+        <v>2.89027307</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.0219187179</v>
+        <v>0.196725817</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.000708820002</v>
+        <v>0.188070486</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0.159765206</v>
+        <v>2.03351507</v>
       </c>
       <c r="S30" s="0" t="s">
         <v>17</v>
@@ -1870,52 +1884,52 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1.15850988</v>
+        <v>5.41965709</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>3.66794251</v>
+        <v>69.795131</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.905174353</v>
+        <v>0.95294847</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>8.75397721E-047</v>
+        <v>1.43789942E-064</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.0494544169</v>
+        <v>0.156726334</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0.977006398</v>
+        <v>0.976219119</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0.998442744</v>
+        <v>0.999177555</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>0.147477798</v>
+        <v>0.149398091</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>0.0217950427</v>
+        <v>0.0226582556</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0.001656288</v>
+        <v>0.00069116145</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>0.151936276</v>
+        <v>0.158473221</v>
       </c>
       <c r="S31" s="0" t="s">
         <v>17</v>
@@ -1929,7 +1943,7 @@
         <v>100</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>100</v>
@@ -1941,37 +1955,37 @@
         <v>1</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>50.1426471</v>
+        <v>583.565328</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>2888.96205</v>
+        <v>22211.3809</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.900541458</v>
+        <v>0.953385049</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>1.36067094E-045</v>
+        <v>8.28840478E-065</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>2.20074934</v>
+        <v>16.7913265</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0.81917781</v>
+        <v>0.642226289</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0.837361618</v>
+        <v>0.652976158</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>1.47147552</v>
+        <v>3.51443196</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>0.0957136668</v>
+        <v>0.210111656</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>0.0805517821</v>
+        <v>0.20301504</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>0.884904861</v>
+        <v>2.33174694</v>
       </c>
       <c r="S32" s="0" t="s">
         <v>17</v>
@@ -1985,49 +1999,49 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>31.8378181</v>
+        <v>487.708087</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1433.33435</v>
+        <v>13305.7587</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.892110324</v>
+        <v>0.955280925</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>1.44169766E-043</v>
+        <v>7.11460921E-066</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>1.46586919</v>
+        <v>13.7242037</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>0.90252718</v>
+        <v>0.742606962</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0.923451997</v>
+        <v>0.756458367</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>0.839837959</v>
+        <v>2.64539498</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.0673119468</v>
+        <v>0.185033369</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0.0495980448</v>
+        <v>0.174701503</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>0.561863665</v>
+        <v>1.96963658</v>
       </c>
       <c r="S33" s="0" t="s">
         <v>17</v>
@@ -2038,52 +2052,52 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1.2015383</v>
+        <v>11.2367334</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>11.7866018</v>
+        <v>98.0786916</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.876783238</v>
+        <v>0.959183679</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>2.77190618E-040</v>
+        <v>3.18740536E-068</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.0599093558</v>
+        <v>0.301161964</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>0.976072724</v>
+        <v>0.960079491</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0.999917469</v>
+        <v>0.980022315</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>0.155611011</v>
+        <v>0.168732432</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.0231010248</v>
+        <v>0.0367644823</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.000155616468</v>
+        <v>0.0184128424</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>0.163928839</v>
+        <v>0.17011992</v>
       </c>
       <c r="S34" s="0" t="s">
         <v>17</v>
@@ -2103,43 +2117,43 @@
         <v>100</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>10.3788047</v>
+        <v>5.41213611</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>366.036148</v>
+        <v>37.5425015</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.875053305</v>
+        <v>0.960947026</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>6.10540363E-040</v>
+        <v>2.32229095E-069</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.521902455</v>
+        <v>0.14168914</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.932977412</v>
+        <v>0.976260549</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0.953717963</v>
+        <v>0.996563096</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>0.320851035</v>
+        <v>0.108789664</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.0516963126</v>
+        <v>0.0217072091</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.0333653943</v>
+        <v>0.00267221725</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>0.256422334</v>
+        <v>0.114287618</v>
       </c>
       <c r="S35" s="0" t="s">
         <v>17</v>
@@ -2150,52 +2164,52 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>41.0024227</v>
+        <v>3.5656246</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1469.80764</v>
+        <v>42.4760918</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.873443252</v>
+        <v>0.961171314</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>1.25990763E-039</v>
+        <v>1.65001036E-069</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>2.07799771</v>
+        <v>0.0930628283</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0.932549897</v>
+        <v>0.95289264</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0.953229209</v>
+        <v>0.972151936</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0.320390888</v>
+        <v>0.176979293</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>0.0523004956</v>
+        <v>0.0419016912</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0.0340817615</v>
+        <v>0.0243237891</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>0.254264707</v>
+        <v>0.173804615</v>
       </c>
       <c r="S36" s="0" t="s">
         <v>17</v>
@@ -2206,7 +2220,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>10</v>
@@ -2215,43 +2229,43 @@
         <v>100</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>76.8053295</v>
+        <v>156.754191</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>3523.49067</v>
+        <v>4398.10747</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.854455295</v>
+        <v>0.96508833</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>3.27369345E-036</v>
+        <v>2.97962472E-072</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>4.24537165</v>
+        <v>3.86754844</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.935874866</v>
+        <v>0.829566337</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.958095228</v>
+        <v>0.845756877</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0.566270716</v>
+        <v>0.757389902</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.0465545429</v>
+        <v>0.124374906</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.0276988035</v>
+        <v>0.110893919</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0.397466373</v>
+        <v>0.552682533</v>
       </c>
       <c r="S37" s="0" t="s">
         <v>17</v>
@@ -2271,43 +2285,43 @@
         <v>100</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.265985668</v>
+        <v>7.25724199</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>4.66974294</v>
+        <v>3.67253846</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.854053844</v>
+        <v>0.976865728</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>3.81875849E-036</v>
+        <v>6.51243047E-083</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.0147277974</v>
+        <v>0.144431044</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0.976401413</v>
+        <v>0.976672199</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.99809099</v>
+        <v>0.997100919</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0.157956798</v>
+        <v>0.111961332</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>0.0219684051</v>
+        <v>0.0216142548</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0.00177311884</v>
+        <v>0.00278658676</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>0.16165448</v>
+        <v>0.114462076</v>
       </c>
       <c r="S38" s="0" t="s">
         <v>17</v>
@@ -2327,43 +2341,43 @@
         <v>100</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.787021381</v>
+        <v>13.2692172</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>11.4663522</v>
+        <v>60.3617018</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.844644928</v>
+        <v>0.977479852</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>1.24302827E-034</v>
+        <v>1.302322E-083</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.0453459784</v>
+        <v>0.260427271</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>0.976897095</v>
+        <v>0.96280153</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0.998786663</v>
+        <v>0.982648168</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>0.157527987</v>
+        <v>0.159641668</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.0217780983</v>
+        <v>0.0348467848</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.00118191434</v>
+        <v>0.0164898226</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>0.162898383</v>
+        <v>0.162454537</v>
       </c>
       <c r="S39" s="0" t="s">
         <v>17</v>
@@ -2374,52 +2388,52 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1.41345704</v>
+        <v>4.36025438</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>52.2402753</v>
+        <v>43.1001687</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.825673403</v>
+        <v>0.97794145</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>7.24113089E-032</v>
+        <v>3.77133574E-084</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.0877960556</v>
+        <v>0.0846645268</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>0.97333846</v>
+        <v>0.949512516</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0.996622562</v>
+        <v>0.968336687</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>0.170147366</v>
+        <v>0.176201755</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.02431588</v>
+        <v>0.0442374654</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.00311839361</v>
+        <v>0.0270597119</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>0.174848423</v>
+        <v>0.172221689</v>
       </c>
       <c r="S40" s="0" t="s">
         <v>17</v>
@@ -2430,52 +2444,52 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.225219898</v>
+        <v>18.5011453</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>9.08419792</v>
+        <v>94.155926</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.771833494</v>
+        <v>0.978137781</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>1.49137663E-025</v>
+        <v>2.20857497E-084</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.0168666119</v>
+        <v>0.357586636</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0.973718998</v>
+        <v>0.977356156</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0.997335947</v>
+        <v>0.997805691</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>0.171827711</v>
+        <v>0.107517879</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0.0242545148</v>
+        <v>0.021166071</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.00260945758</v>
+        <v>0.00173953679</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>0.176302783</v>
+        <v>0.114226631</v>
       </c>
       <c r="S41" s="0" t="s">
         <v>17</v>
@@ -2486,52 +2500,52 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.242368935</v>
+        <v>19.3568112</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>12.660768</v>
+        <v>143.706017</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.724973305</v>
+        <v>0.978166774</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>2.53342904E-021</v>
+        <v>2.03993651E-084</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.0209334529</v>
+        <v>0.373868284</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0.973458286</v>
+        <v>0.976524469</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0.996066093</v>
+        <v>0.998039155</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>0.164447877</v>
+        <v>0.1131772</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>0.0238985048</v>
+        <v>0.0223293546</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>0.00314381125</v>
+        <v>0.00152726049</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>0.168767671</v>
+        <v>0.121921026</v>
       </c>
       <c r="S42" s="0" t="s">
         <v>17</v>
@@ -2542,7 +2556,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>20</v>
@@ -2551,43 +2565,43 @@
         <v>100</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.147463851</v>
+        <v>40.3838779</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>2.79051559</v>
+        <v>809.604655</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.696408944</v>
+        <v>0.979325957</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>3.78611617E-019</v>
+        <v>7.78230685E-086</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.0138145999</v>
+        <v>0.758332103</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0.975958101</v>
+        <v>0.84901216</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>0.999937391</v>
+        <v>0.866062583</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>0.168841205</v>
+        <v>0.72103586</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.0232004657</v>
+        <v>0.115792691</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>0.000124474629</v>
+        <v>0.101421262</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>0.175383858</v>
+        <v>0.57515367</v>
       </c>
       <c r="S43" s="0" t="s">
         <v>17</v>
@@ -2601,49 +2615,49 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.692418955</v>
+        <v>9.33455619</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>34.77227</v>
+        <v>84.4979529</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.695065546</v>
+        <v>0.979502025</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>4.72280704E-019</v>
+        <v>4.66276152E-086</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.0651098955</v>
+        <v>0.17451353</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0.9742809</v>
+        <v>0.975051621</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>0.997016533</v>
+        <v>0.993959965</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>0.164792673</v>
+        <v>0.0979669907</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>0.0235836539</v>
+        <v>0.0221638495</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0.00262470981</v>
+        <v>0.00423656012</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>0.169667518</v>
+        <v>0.0950873754</v>
       </c>
       <c r="S44" s="0" t="s">
         <v>17</v>
@@ -2654,7 +2668,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>10</v>
@@ -2663,43 +2677,43 @@
         <v>100</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0.297079571</v>
+        <v>25.455467</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>14.1373426</v>
+        <v>233.707264</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.646063087</v>
+        <v>0.984228665</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>7.07299368E-016</v>
+        <v>6.94674027E-093</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.0319073945</v>
+        <v>0.415932125</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0.976060216</v>
+        <v>0.971055872</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>0.998375979</v>
+        <v>0.989988467</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>0.159831753</v>
+        <v>0.108850076</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>0.022436879</v>
+        <v>0.0243420481</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>0.00149509104</v>
+        <v>0.00673405755</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>0.164912225</v>
+        <v>0.108873845</v>
       </c>
       <c r="S45" s="0" t="s">
         <v>17</v>
@@ -2713,49 +2727,49 @@
         <v>20</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.0939817492</v>
+        <v>23.6143146</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>4.03376071</v>
+        <v>19.4678788</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.645767776</v>
+        <v>0.985574703</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>7.36196632E-016</v>
+        <v>3.27356788E-095</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.0101018934</v>
+        <v>0.368636731</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0.97579723</v>
+        <v>0.97732326</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>0.998070379</v>
+        <v>0.997474619</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>0.160432574</v>
+        <v>0.105402723</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>0.022609388</v>
+        <v>0.0211811148</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0.00187973497</v>
+        <v>0.0023498452</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>0.164027616</v>
+        <v>0.108392154</v>
       </c>
       <c r="S46" s="0" t="s">
         <v>17</v>
@@ -2769,49 +2783,49 @@
         <v>20</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0</v>
+        <v>5.14624903</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0</v>
+        <v>70.7446336</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>1</v>
+        <v>0.987006039</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>6.13271178E-098</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0</v>
+        <v>0.0761638137</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0.97753018</v>
+        <v>0.940805806</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>1</v>
+        <v>0.958722352</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>0.15848966</v>
+        <v>0.178203347</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>0.02154245</v>
+        <v>0.0469868072</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>0</v>
+        <v>0.0306214405</v>
       </c>
       <c r="P47" s="0" t="n">
-        <v>0.16422066</v>
+        <v>0.168686036</v>
       </c>
       <c r="S47" s="0" t="s">
         <v>17</v>
@@ -2825,49 +2839,49 @@
         <v>20</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0</v>
+        <v>16.5168744</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0</v>
+        <v>108.244171</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>1</v>
+        <v>0.989710808</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>4.89697641E-104</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0</v>
+        <v>0.217076339</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0.97751238</v>
+        <v>0.957794966</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>1</v>
+        <v>0.976661017</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>0.15886065</v>
+        <v>0.156966812</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>0.02152378</v>
+        <v>0.0371172716</v>
       </c>
       <c r="O48" s="0" t="n">
-        <v>0</v>
+        <v>0.0198402669</v>
       </c>
       <c r="P48" s="0" t="n">
-        <v>0.16319502</v>
+        <v>0.157195102</v>
       </c>
       <c r="S48" s="0" t="s">
         <v>17</v>
@@ -2876,59 +2890,59 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D49" s="0" t="n">
+    <row r="49" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D49" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>-0.000182275622</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>0.0276738768</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>-0.0640289578</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>0.481689798</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>0.000258266098</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <v>0.975874904</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <v>0.99999793</v>
-      </c>
-      <c r="M49" s="0" t="n">
-        <v>0.171280233</v>
-      </c>
-      <c r="N49" s="0" t="n">
-        <v>0.0232707074</v>
-      </c>
-      <c r="O49" s="1" t="n">
-        <v>2.2867248E-005</v>
-      </c>
-      <c r="P49" s="0" t="n">
-        <v>0.177447036</v>
-      </c>
-      <c r="S49" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="T49" s="0" t="s">
+      <c r="E49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>32.335089</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>149.440198</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>0.993311186</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>2.6328874E-115</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>0.34171037</v>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>0.977679285</v>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v>0.996553122</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>0.0789440818</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>0.0205205796</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>0.00251674803</v>
+      </c>
+      <c r="P49" s="2" t="n">
+        <v>0.0824769226</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T49" s="2" t="s">
         <v>17</v>
       </c>
     </row>
